--- a/code/build/results_MyFireflyD50_basic/results_cec2017_50.xlsx
+++ b/code/build/results_MyFireflyD50_basic/results_cec2017_50.xlsx
@@ -603,94 +603,94 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>222172440000</v>
+        <v>201891300000</v>
       </c>
       <c r="D2" t="n">
-        <v>1.947523936739389e+85</v>
+        <v>3.653549e+79</v>
       </c>
       <c r="E2" t="n">
-        <v>325681.14</v>
+        <v>367609.4</v>
       </c>
       <c r="F2" t="n">
-        <v>79690.28199999999</v>
+        <v>75938.88</v>
       </c>
       <c r="G2" t="n">
-        <v>1098.448</v>
+        <v>1034.883</v>
       </c>
       <c r="H2" t="n">
-        <v>135.17758</v>
+        <v>129.5298</v>
       </c>
       <c r="I2" t="n">
-        <v>4809.5426</v>
+        <v>5119.099</v>
       </c>
       <c r="J2" t="n">
-        <v>1097.6836</v>
+        <v>1012.122</v>
       </c>
       <c r="K2" t="n">
-        <v>73874.62</v>
+        <v>60245.2</v>
       </c>
       <c r="L2" t="n">
-        <v>14693.91</v>
+        <v>14514.5</v>
       </c>
       <c r="M2" t="n">
-        <v>51826.138</v>
+        <v>42994.1</v>
       </c>
       <c r="N2" t="n">
-        <v>106595026000</v>
+        <v>104315900000</v>
       </c>
       <c r="O2" t="n">
-        <v>61722892000</v>
+        <v>69726200000</v>
       </c>
       <c r="P2" t="n">
-        <v>69176492</v>
+        <v>73135050</v>
       </c>
       <c r="Q2" t="n">
-        <v>19925334000</v>
+        <v>14792940000</v>
       </c>
       <c r="R2" t="n">
-        <v>8628.261200000001</v>
+        <v>11102.29</v>
       </c>
       <c r="S2" t="n">
-        <v>216870.196</v>
+        <v>87678.60000000001</v>
       </c>
       <c r="T2" t="n">
-        <v>349779246</v>
+        <v>313079500</v>
       </c>
       <c r="U2" t="n">
-        <v>7675236800</v>
+        <v>6720248000</v>
       </c>
       <c r="V2" t="n">
-        <v>2731.1034</v>
+        <v>2877.536</v>
       </c>
       <c r="W2" t="n">
-        <v>1349.7978</v>
+        <v>1348.849</v>
       </c>
       <c r="X2" t="n">
-        <v>15816.728</v>
+        <v>15618.15</v>
       </c>
       <c r="Y2" t="n">
-        <v>2503.5716</v>
+        <v>2496.026</v>
       </c>
       <c r="Z2" t="n">
-        <v>2625.8372</v>
+        <v>2646.022</v>
       </c>
       <c r="AA2" t="n">
-        <v>46564.776</v>
+        <v>46779.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>23505.462</v>
+        <v>21424.11</v>
       </c>
       <c r="AC2" t="n">
-        <v>4451.2288</v>
+        <v>4296.79</v>
       </c>
       <c r="AD2" t="n">
-        <v>17322.27</v>
+        <v>18716.72</v>
       </c>
       <c r="AE2" t="n">
-        <v>51822.852</v>
+        <v>43151.39</v>
       </c>
       <c r="AF2" t="n">
-        <v>12739339800</v>
+        <v>11474720000</v>
       </c>
       <c r="AG2" t="n">
         <v>50</v>
@@ -704,94 +704,94 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>222172440000</v>
+        <v>201891300000</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947523936739389e+85</v>
+        <v>3.653549e+79</v>
       </c>
       <c r="E3" t="n">
-        <v>325681.14</v>
+        <v>367609.4</v>
       </c>
       <c r="F3" t="n">
-        <v>79690.28199999999</v>
+        <v>75938.88</v>
       </c>
       <c r="G3" t="n">
-        <v>1098.448</v>
+        <v>1034.883</v>
       </c>
       <c r="H3" t="n">
-        <v>135.17758</v>
+        <v>126.8215</v>
       </c>
       <c r="I3" t="n">
-        <v>4809.5426</v>
+        <v>5119.099</v>
       </c>
       <c r="J3" t="n">
-        <v>1090.6108</v>
+        <v>1012.122</v>
       </c>
       <c r="K3" t="n">
-        <v>73474.636</v>
+        <v>60245.2</v>
       </c>
       <c r="L3" t="n">
-        <v>14693.91</v>
+        <v>14514.5</v>
       </c>
       <c r="M3" t="n">
-        <v>51826.138</v>
+        <v>42994.1</v>
       </c>
       <c r="N3" t="n">
-        <v>106595026000</v>
+        <v>104315900000</v>
       </c>
       <c r="O3" t="n">
-        <v>61722892000</v>
+        <v>69726200000</v>
       </c>
       <c r="P3" t="n">
-        <v>69176492</v>
+        <v>73135050</v>
       </c>
       <c r="Q3" t="n">
-        <v>19925334000</v>
+        <v>14792940000</v>
       </c>
       <c r="R3" t="n">
-        <v>8628.261200000001</v>
+        <v>11102.29</v>
       </c>
       <c r="S3" t="n">
-        <v>216870.196</v>
+        <v>87678.60000000001</v>
       </c>
       <c r="T3" t="n">
-        <v>349779246</v>
+        <v>313079500</v>
       </c>
       <c r="U3" t="n">
-        <v>7675236800</v>
+        <v>6720248000</v>
       </c>
       <c r="V3" t="n">
-        <v>2668.7958</v>
+        <v>2877.536</v>
       </c>
       <c r="W3" t="n">
-        <v>1349.7978</v>
+        <v>1348.849</v>
       </c>
       <c r="X3" t="n">
-        <v>15816.728</v>
+        <v>15618.15</v>
       </c>
       <c r="Y3" t="n">
-        <v>2503.5716</v>
+        <v>2496.026</v>
       </c>
       <c r="Z3" t="n">
-        <v>2625.8372</v>
+        <v>2646.022</v>
       </c>
       <c r="AA3" t="n">
-        <v>46564.776</v>
+        <v>46779.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>23505.462</v>
+        <v>21424.11</v>
       </c>
       <c r="AC3" t="n">
-        <v>4451.2288</v>
+        <v>4296.79</v>
       </c>
       <c r="AD3" t="n">
-        <v>17322.27</v>
+        <v>18716.72</v>
       </c>
       <c r="AE3" t="n">
-        <v>51822.852</v>
+        <v>43151.39</v>
       </c>
       <c r="AF3" t="n">
-        <v>12739339800</v>
+        <v>11474720000</v>
       </c>
       <c r="AG3" t="n">
         <v>50</v>
@@ -805,94 +805,94 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>222172440000</v>
+        <v>201891300000</v>
       </c>
       <c r="D4" t="n">
-        <v>1.947523936739389e+85</v>
+        <v>3.653549e+79</v>
       </c>
       <c r="E4" t="n">
-        <v>325681.14</v>
+        <v>367609.4</v>
       </c>
       <c r="F4" t="n">
-        <v>79690.28199999999</v>
+        <v>75938.88</v>
       </c>
       <c r="G4" t="n">
-        <v>1098.448</v>
+        <v>1034.883</v>
       </c>
       <c r="H4" t="n">
-        <v>135.17758</v>
+        <v>126.8215</v>
       </c>
       <c r="I4" t="n">
-        <v>4809.5426</v>
+        <v>5119.099</v>
       </c>
       <c r="J4" t="n">
-        <v>1090.6108</v>
+        <v>1012.122</v>
       </c>
       <c r="K4" t="n">
-        <v>73474.636</v>
+        <v>60245.2</v>
       </c>
       <c r="L4" t="n">
-        <v>14693.91</v>
+        <v>14514.5</v>
       </c>
       <c r="M4" t="n">
-        <v>51826.138</v>
+        <v>42994.1</v>
       </c>
       <c r="N4" t="n">
-        <v>106595026000</v>
+        <v>104315900000</v>
       </c>
       <c r="O4" t="n">
-        <v>61722892000</v>
+        <v>69726200000</v>
       </c>
       <c r="P4" t="n">
-        <v>69176492</v>
+        <v>73135050</v>
       </c>
       <c r="Q4" t="n">
-        <v>19925334000</v>
+        <v>14792940000</v>
       </c>
       <c r="R4" t="n">
-        <v>8628.261200000001</v>
+        <v>11102.29</v>
       </c>
       <c r="S4" t="n">
-        <v>216870.196</v>
+        <v>87678.60000000001</v>
       </c>
       <c r="T4" t="n">
-        <v>349779246</v>
+        <v>313079500</v>
       </c>
       <c r="U4" t="n">
-        <v>7675236800</v>
+        <v>6720248000</v>
       </c>
       <c r="V4" t="n">
-        <v>2668.7958</v>
+        <v>2877.536</v>
       </c>
       <c r="W4" t="n">
-        <v>1349.7978</v>
+        <v>1348.849</v>
       </c>
       <c r="X4" t="n">
-        <v>15816.728</v>
+        <v>15618.15</v>
       </c>
       <c r="Y4" t="n">
-        <v>2503.5716</v>
+        <v>2496.026</v>
       </c>
       <c r="Z4" t="n">
-        <v>2625.8372</v>
+        <v>2646.022</v>
       </c>
       <c r="AA4" t="n">
-        <v>46564.776</v>
+        <v>46779.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>23505.462</v>
+        <v>21424.11</v>
       </c>
       <c r="AC4" t="n">
-        <v>4451.2288</v>
+        <v>4296.79</v>
       </c>
       <c r="AD4" t="n">
-        <v>17322.27</v>
+        <v>18716.72</v>
       </c>
       <c r="AE4" t="n">
-        <v>51822.852</v>
+        <v>43151.39</v>
       </c>
       <c r="AF4" t="n">
-        <v>12739339800</v>
+        <v>11474720000</v>
       </c>
       <c r="AG4" t="n">
         <v>50</v>
@@ -906,94 +906,94 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>222172440000</v>
+        <v>201891300000</v>
       </c>
       <c r="D5" t="n">
-        <v>1.947523936739389e+85</v>
+        <v>3.653549e+79</v>
       </c>
       <c r="E5" t="n">
-        <v>325681.14</v>
+        <v>367609.4</v>
       </c>
       <c r="F5" t="n">
-        <v>79690.28199999999</v>
+        <v>75938.88</v>
       </c>
       <c r="G5" t="n">
-        <v>1098.448</v>
+        <v>1034.883</v>
       </c>
       <c r="H5" t="n">
-        <v>135.17758</v>
+        <v>126.8215</v>
       </c>
       <c r="I5" t="n">
-        <v>4809.5426</v>
+        <v>5119.099</v>
       </c>
       <c r="J5" t="n">
-        <v>1090.6108</v>
+        <v>1012.122</v>
       </c>
       <c r="K5" t="n">
-        <v>73474.636</v>
+        <v>60245.2</v>
       </c>
       <c r="L5" t="n">
-        <v>14693.91</v>
+        <v>14514.5</v>
       </c>
       <c r="M5" t="n">
-        <v>51826.138</v>
+        <v>42994.1</v>
       </c>
       <c r="N5" t="n">
-        <v>106595026000</v>
+        <v>104315900000</v>
       </c>
       <c r="O5" t="n">
-        <v>61722892000</v>
+        <v>69726200000</v>
       </c>
       <c r="P5" t="n">
-        <v>69176492</v>
+        <v>73135050</v>
       </c>
       <c r="Q5" t="n">
-        <v>19925334000</v>
+        <v>14792940000</v>
       </c>
       <c r="R5" t="n">
-        <v>8628.261200000001</v>
+        <v>11102.29</v>
       </c>
       <c r="S5" t="n">
-        <v>216870.196</v>
+        <v>87678.60000000001</v>
       </c>
       <c r="T5" t="n">
-        <v>349779246</v>
+        <v>313079500</v>
       </c>
       <c r="U5" t="n">
-        <v>7675236800</v>
+        <v>6720248000</v>
       </c>
       <c r="V5" t="n">
-        <v>2668.7958</v>
+        <v>2877.536</v>
       </c>
       <c r="W5" t="n">
-        <v>1349.7978</v>
+        <v>1348.849</v>
       </c>
       <c r="X5" t="n">
-        <v>15816.728</v>
+        <v>15618.15</v>
       </c>
       <c r="Y5" t="n">
-        <v>2503.5716</v>
+        <v>2496.026</v>
       </c>
       <c r="Z5" t="n">
-        <v>2625.8372</v>
+        <v>2646.022</v>
       </c>
       <c r="AA5" t="n">
-        <v>46564.776</v>
+        <v>46779.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>23505.462</v>
+        <v>21424.11</v>
       </c>
       <c r="AC5" t="n">
-        <v>4451.2288</v>
+        <v>4296.79</v>
       </c>
       <c r="AD5" t="n">
-        <v>17322.27</v>
+        <v>18716.72</v>
       </c>
       <c r="AE5" t="n">
-        <v>51822.852</v>
+        <v>43151.39</v>
       </c>
       <c r="AF5" t="n">
-        <v>12739339800</v>
+        <v>11474720000</v>
       </c>
       <c r="AG5" t="n">
         <v>50</v>
@@ -1007,94 +1007,94 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>222172440000</v>
+        <v>201891300000</v>
       </c>
       <c r="D6" t="n">
-        <v>1.947523936739389e+85</v>
+        <v>3.653549e+79</v>
       </c>
       <c r="E6" t="n">
-        <v>325681.14</v>
+        <v>367609.4</v>
       </c>
       <c r="F6" t="n">
-        <v>79690.28199999999</v>
+        <v>75938.88</v>
       </c>
       <c r="G6" t="n">
-        <v>1098.448</v>
+        <v>1034.883</v>
       </c>
       <c r="H6" t="n">
-        <v>135.17758</v>
+        <v>126.8215</v>
       </c>
       <c r="I6" t="n">
-        <v>4809.5426</v>
+        <v>5119.099</v>
       </c>
       <c r="J6" t="n">
-        <v>1090.6108</v>
+        <v>1012.122</v>
       </c>
       <c r="K6" t="n">
-        <v>73474.636</v>
+        <v>60245.2</v>
       </c>
       <c r="L6" t="n">
-        <v>14693.91</v>
+        <v>14514.5</v>
       </c>
       <c r="M6" t="n">
-        <v>51826.138</v>
+        <v>42994.1</v>
       </c>
       <c r="N6" t="n">
-        <v>106595026000</v>
+        <v>104315900000</v>
       </c>
       <c r="O6" t="n">
-        <v>61722892000</v>
+        <v>69726200000</v>
       </c>
       <c r="P6" t="n">
-        <v>69176492</v>
+        <v>73135050</v>
       </c>
       <c r="Q6" t="n">
-        <v>19925334000</v>
+        <v>14792940000</v>
       </c>
       <c r="R6" t="n">
-        <v>8628.261200000001</v>
+        <v>11102.29</v>
       </c>
       <c r="S6" t="n">
-        <v>216870.196</v>
+        <v>87678.60000000001</v>
       </c>
       <c r="T6" t="n">
-        <v>349779246</v>
+        <v>313079500</v>
       </c>
       <c r="U6" t="n">
-        <v>7675236800</v>
+        <v>6720248000</v>
       </c>
       <c r="V6" t="n">
-        <v>2668.7958</v>
+        <v>2877.536</v>
       </c>
       <c r="W6" t="n">
-        <v>1349.7978</v>
+        <v>1348.849</v>
       </c>
       <c r="X6" t="n">
-        <v>15816.728</v>
+        <v>15618.15</v>
       </c>
       <c r="Y6" t="n">
-        <v>2503.5716</v>
+        <v>2496.026</v>
       </c>
       <c r="Z6" t="n">
-        <v>2625.8372</v>
+        <v>2646.022</v>
       </c>
       <c r="AA6" t="n">
-        <v>46564.776</v>
+        <v>46779.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>23505.462</v>
+        <v>21424.11</v>
       </c>
       <c r="AC6" t="n">
-        <v>4451.2288</v>
+        <v>4296.79</v>
       </c>
       <c r="AD6" t="n">
-        <v>17322.27</v>
+        <v>18716.72</v>
       </c>
       <c r="AE6" t="n">
-        <v>51822.852</v>
+        <v>43151.39</v>
       </c>
       <c r="AF6" t="n">
-        <v>12739339800</v>
+        <v>11474720000</v>
       </c>
       <c r="AG6" t="n">
         <v>50</v>
@@ -1108,94 +1108,94 @@
         <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>222172440000</v>
+        <v>201891300000</v>
       </c>
       <c r="D7" t="n">
-        <v>1.947523936739389e+85</v>
+        <v>3.653549e+79</v>
       </c>
       <c r="E7" t="n">
-        <v>325681.14</v>
+        <v>367609.4</v>
       </c>
       <c r="F7" t="n">
-        <v>79690.28199999999</v>
+        <v>75938.88</v>
       </c>
       <c r="G7" t="n">
-        <v>1098.448</v>
+        <v>1034.883</v>
       </c>
       <c r="H7" t="n">
-        <v>135.17758</v>
+        <v>126.8215</v>
       </c>
       <c r="I7" t="n">
-        <v>4809.5426</v>
+        <v>5119.099</v>
       </c>
       <c r="J7" t="n">
-        <v>1090.6108</v>
+        <v>1012.122</v>
       </c>
       <c r="K7" t="n">
-        <v>73474.636</v>
+        <v>60245.2</v>
       </c>
       <c r="L7" t="n">
-        <v>14693.91</v>
+        <v>14514.5</v>
       </c>
       <c r="M7" t="n">
-        <v>51826.138</v>
+        <v>42994.1</v>
       </c>
       <c r="N7" t="n">
-        <v>106595026000</v>
+        <v>104315900000</v>
       </c>
       <c r="O7" t="n">
-        <v>61722892000</v>
+        <v>69726200000</v>
       </c>
       <c r="P7" t="n">
-        <v>69176492</v>
+        <v>73135050</v>
       </c>
       <c r="Q7" t="n">
-        <v>19925334000</v>
+        <v>14792940000</v>
       </c>
       <c r="R7" t="n">
-        <v>8628.261200000001</v>
+        <v>11102.29</v>
       </c>
       <c r="S7" t="n">
-        <v>216870.196</v>
+        <v>87678.60000000001</v>
       </c>
       <c r="T7" t="n">
-        <v>349779246</v>
+        <v>313079500</v>
       </c>
       <c r="U7" t="n">
-        <v>7675236800</v>
+        <v>6720248000</v>
       </c>
       <c r="V7" t="n">
-        <v>2668.7958</v>
+        <v>2877.536</v>
       </c>
       <c r="W7" t="n">
-        <v>1349.7978</v>
+        <v>1348.849</v>
       </c>
       <c r="X7" t="n">
-        <v>15816.728</v>
+        <v>15618.15</v>
       </c>
       <c r="Y7" t="n">
-        <v>2503.5716</v>
+        <v>2496.026</v>
       </c>
       <c r="Z7" t="n">
-        <v>2625.8372</v>
+        <v>2646.022</v>
       </c>
       <c r="AA7" t="n">
-        <v>46564.776</v>
+        <v>46779.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>23505.462</v>
+        <v>21424.11</v>
       </c>
       <c r="AC7" t="n">
-        <v>4451.2288</v>
+        <v>4296.79</v>
       </c>
       <c r="AD7" t="n">
-        <v>17322.27</v>
+        <v>18716.72</v>
       </c>
       <c r="AE7" t="n">
-        <v>51822.852</v>
+        <v>43151.39</v>
       </c>
       <c r="AF7" t="n">
-        <v>12739339800</v>
+        <v>11474720000</v>
       </c>
       <c r="AG7" t="n">
         <v>50</v>
@@ -1209,94 +1209,94 @@
         <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>222172440000</v>
+        <v>201891300000</v>
       </c>
       <c r="D8" t="n">
-        <v>1.947523936739389e+85</v>
+        <v>3.653549e+79</v>
       </c>
       <c r="E8" t="n">
-        <v>325681.14</v>
+        <v>367609.4</v>
       </c>
       <c r="F8" t="n">
-        <v>79690.28199999999</v>
+        <v>75938.88</v>
       </c>
       <c r="G8" t="n">
-        <v>1098.448</v>
+        <v>1034.883</v>
       </c>
       <c r="H8" t="n">
-        <v>135.17758</v>
+        <v>126.8215</v>
       </c>
       <c r="I8" t="n">
-        <v>4809.5426</v>
+        <v>5119.099</v>
       </c>
       <c r="J8" t="n">
-        <v>1090.6108</v>
+        <v>1012.122</v>
       </c>
       <c r="K8" t="n">
-        <v>73474.636</v>
+        <v>60245.2</v>
       </c>
       <c r="L8" t="n">
-        <v>14693.91</v>
+        <v>14514.5</v>
       </c>
       <c r="M8" t="n">
-        <v>51826.138</v>
+        <v>42994.1</v>
       </c>
       <c r="N8" t="n">
-        <v>106595026000</v>
+        <v>104315900000</v>
       </c>
       <c r="O8" t="n">
-        <v>61722892000</v>
+        <v>69726200000</v>
       </c>
       <c r="P8" t="n">
-        <v>69176492</v>
+        <v>73135050</v>
       </c>
       <c r="Q8" t="n">
-        <v>19925334000</v>
+        <v>14792940000</v>
       </c>
       <c r="R8" t="n">
-        <v>8628.261200000001</v>
+        <v>11102.29</v>
       </c>
       <c r="S8" t="n">
-        <v>216870.196</v>
+        <v>87678.60000000001</v>
       </c>
       <c r="T8" t="n">
-        <v>349779246</v>
+        <v>313079500</v>
       </c>
       <c r="U8" t="n">
-        <v>7675236800</v>
+        <v>6720248000</v>
       </c>
       <c r="V8" t="n">
-        <v>2668.7958</v>
+        <v>2877.536</v>
       </c>
       <c r="W8" t="n">
-        <v>1349.7978</v>
+        <v>1348.849</v>
       </c>
       <c r="X8" t="n">
-        <v>15816.728</v>
+        <v>15618.15</v>
       </c>
       <c r="Y8" t="n">
-        <v>2503.5716</v>
+        <v>2496.026</v>
       </c>
       <c r="Z8" t="n">
-        <v>2625.8372</v>
+        <v>2646.022</v>
       </c>
       <c r="AA8" t="n">
-        <v>46564.776</v>
+        <v>46779.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>23505.462</v>
+        <v>21424.11</v>
       </c>
       <c r="AC8" t="n">
-        <v>4451.2288</v>
+        <v>4296.79</v>
       </c>
       <c r="AD8" t="n">
-        <v>17322.27</v>
+        <v>18716.72</v>
       </c>
       <c r="AE8" t="n">
-        <v>51822.852</v>
+        <v>43151.39</v>
       </c>
       <c r="AF8" t="n">
-        <v>12739339800</v>
+        <v>11474720000</v>
       </c>
       <c r="AG8" t="n">
         <v>50</v>
@@ -1310,94 +1310,94 @@
         <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>222172440000</v>
+        <v>201891300000</v>
       </c>
       <c r="D9" t="n">
-        <v>1.947523936739389e+85</v>
+        <v>3.653549e+79</v>
       </c>
       <c r="E9" t="n">
-        <v>325681.14</v>
+        <v>367609.4</v>
       </c>
       <c r="F9" t="n">
-        <v>79690.28199999999</v>
+        <v>75938.88</v>
       </c>
       <c r="G9" t="n">
-        <v>1098.448</v>
+        <v>1034.883</v>
       </c>
       <c r="H9" t="n">
-        <v>135.17758</v>
+        <v>126.8215</v>
       </c>
       <c r="I9" t="n">
-        <v>4809.5426</v>
+        <v>5119.099</v>
       </c>
       <c r="J9" t="n">
-        <v>1090.6108</v>
+        <v>1012.122</v>
       </c>
       <c r="K9" t="n">
-        <v>73474.636</v>
+        <v>60245.2</v>
       </c>
       <c r="L9" t="n">
-        <v>14693.91</v>
+        <v>14514.5</v>
       </c>
       <c r="M9" t="n">
-        <v>51826.138</v>
+        <v>42994.1</v>
       </c>
       <c r="N9" t="n">
-        <v>106595026000</v>
+        <v>104315900000</v>
       </c>
       <c r="O9" t="n">
-        <v>61722892000</v>
+        <v>69726200000</v>
       </c>
       <c r="P9" t="n">
-        <v>69176492</v>
+        <v>73135050</v>
       </c>
       <c r="Q9" t="n">
-        <v>19925334000</v>
+        <v>14792940000</v>
       </c>
       <c r="R9" t="n">
-        <v>8628.261200000001</v>
+        <v>11102.29</v>
       </c>
       <c r="S9" t="n">
-        <v>216870.196</v>
+        <v>87678.60000000001</v>
       </c>
       <c r="T9" t="n">
-        <v>349779246</v>
+        <v>313079500</v>
       </c>
       <c r="U9" t="n">
-        <v>7675236800</v>
+        <v>6720248000</v>
       </c>
       <c r="V9" t="n">
-        <v>2668.7958</v>
+        <v>2877.536</v>
       </c>
       <c r="W9" t="n">
-        <v>1349.7978</v>
+        <v>1348.849</v>
       </c>
       <c r="X9" t="n">
-        <v>15816.728</v>
+        <v>15618.15</v>
       </c>
       <c r="Y9" t="n">
-        <v>2503.5716</v>
+        <v>2496.026</v>
       </c>
       <c r="Z9" t="n">
-        <v>2625.8372</v>
+        <v>2646.022</v>
       </c>
       <c r="AA9" t="n">
-        <v>46564.776</v>
+        <v>46779.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>23505.462</v>
+        <v>21424.11</v>
       </c>
       <c r="AC9" t="n">
-        <v>4451.2288</v>
+        <v>4296.79</v>
       </c>
       <c r="AD9" t="n">
-        <v>17322.27</v>
+        <v>18716.72</v>
       </c>
       <c r="AE9" t="n">
-        <v>51822.852</v>
+        <v>43151.39</v>
       </c>
       <c r="AF9" t="n">
-        <v>12739339800</v>
+        <v>11474720000</v>
       </c>
       <c r="AG9" t="n">
         <v>50</v>
@@ -1411,94 +1411,94 @@
         <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>222172440000</v>
+        <v>201891300000</v>
       </c>
       <c r="D10" t="n">
-        <v>1.947523936739389e+85</v>
+        <v>3.653549e+79</v>
       </c>
       <c r="E10" t="n">
-        <v>325681.14</v>
+        <v>367609.4</v>
       </c>
       <c r="F10" t="n">
-        <v>79690.28199999999</v>
+        <v>75938.88</v>
       </c>
       <c r="G10" t="n">
-        <v>1098.448</v>
+        <v>1034.883</v>
       </c>
       <c r="H10" t="n">
-        <v>135.17758</v>
+        <v>126.8215</v>
       </c>
       <c r="I10" t="n">
-        <v>4809.5426</v>
+        <v>5119.099</v>
       </c>
       <c r="J10" t="n">
-        <v>1090.6108</v>
+        <v>1012.122</v>
       </c>
       <c r="K10" t="n">
-        <v>73474.636</v>
+        <v>60245.2</v>
       </c>
       <c r="L10" t="n">
-        <v>14693.91</v>
+        <v>14514.5</v>
       </c>
       <c r="M10" t="n">
-        <v>51826.138</v>
+        <v>42994.1</v>
       </c>
       <c r="N10" t="n">
-        <v>106595026000</v>
+        <v>104315900000</v>
       </c>
       <c r="O10" t="n">
-        <v>61722892000</v>
+        <v>69726200000</v>
       </c>
       <c r="P10" t="n">
-        <v>69176492</v>
+        <v>73135050</v>
       </c>
       <c r="Q10" t="n">
-        <v>19925334000</v>
+        <v>14792940000</v>
       </c>
       <c r="R10" t="n">
-        <v>8628.261200000001</v>
+        <v>11102.29</v>
       </c>
       <c r="S10" t="n">
-        <v>216870.196</v>
+        <v>87678.60000000001</v>
       </c>
       <c r="T10" t="n">
-        <v>349779246</v>
+        <v>313079500</v>
       </c>
       <c r="U10" t="n">
-        <v>7675236800</v>
+        <v>6720248000</v>
       </c>
       <c r="V10" t="n">
-        <v>2668.7958</v>
+        <v>2877.536</v>
       </c>
       <c r="W10" t="n">
-        <v>1349.7978</v>
+        <v>1348.849</v>
       </c>
       <c r="X10" t="n">
-        <v>15816.728</v>
+        <v>15618.15</v>
       </c>
       <c r="Y10" t="n">
-        <v>2503.5716</v>
+        <v>2496.026</v>
       </c>
       <c r="Z10" t="n">
-        <v>2625.8372</v>
+        <v>2646.022</v>
       </c>
       <c r="AA10" t="n">
-        <v>46564.776</v>
+        <v>46779.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>23505.462</v>
+        <v>21424.11</v>
       </c>
       <c r="AC10" t="n">
-        <v>4451.2288</v>
+        <v>4296.79</v>
       </c>
       <c r="AD10" t="n">
-        <v>17322.27</v>
+        <v>18716.72</v>
       </c>
       <c r="AE10" t="n">
-        <v>51822.852</v>
+        <v>43151.39</v>
       </c>
       <c r="AF10" t="n">
-        <v>12739339800</v>
+        <v>11474720000</v>
       </c>
       <c r="AG10" t="n">
         <v>50</v>
@@ -1512,94 +1512,94 @@
         <v>60</v>
       </c>
       <c r="C11" t="n">
-        <v>222172440000</v>
+        <v>201891300000</v>
       </c>
       <c r="D11" t="n">
-        <v>1.947523936739389e+85</v>
+        <v>3.653549e+79</v>
       </c>
       <c r="E11" t="n">
-        <v>325681.14</v>
+        <v>367609.4</v>
       </c>
       <c r="F11" t="n">
-        <v>79690.28199999999</v>
+        <v>75938.88</v>
       </c>
       <c r="G11" t="n">
-        <v>1098.448</v>
+        <v>1034.883</v>
       </c>
       <c r="H11" t="n">
-        <v>135.17758</v>
+        <v>126.8215</v>
       </c>
       <c r="I11" t="n">
-        <v>4809.5426</v>
+        <v>5119.099</v>
       </c>
       <c r="J11" t="n">
-        <v>1090.6108</v>
+        <v>1012.122</v>
       </c>
       <c r="K11" t="n">
-        <v>73474.636</v>
+        <v>60245.2</v>
       </c>
       <c r="L11" t="n">
-        <v>14693.91</v>
+        <v>14514.5</v>
       </c>
       <c r="M11" t="n">
-        <v>51826.138</v>
+        <v>42994.1</v>
       </c>
       <c r="N11" t="n">
-        <v>106595026000</v>
+        <v>104315900000</v>
       </c>
       <c r="O11" t="n">
-        <v>61722892000</v>
+        <v>69726200000</v>
       </c>
       <c r="P11" t="n">
-        <v>69176492</v>
+        <v>73135050</v>
       </c>
       <c r="Q11" t="n">
-        <v>19925334000</v>
+        <v>14792940000</v>
       </c>
       <c r="R11" t="n">
-        <v>8628.261200000001</v>
+        <v>11102.29</v>
       </c>
       <c r="S11" t="n">
-        <v>216870.196</v>
+        <v>87678.60000000001</v>
       </c>
       <c r="T11" t="n">
-        <v>349779246</v>
+        <v>313079500</v>
       </c>
       <c r="U11" t="n">
-        <v>7675236800</v>
+        <v>6720248000</v>
       </c>
       <c r="V11" t="n">
-        <v>2668.7958</v>
+        <v>2877.536</v>
       </c>
       <c r="W11" t="n">
-        <v>1349.7978</v>
+        <v>1348.849</v>
       </c>
       <c r="X11" t="n">
-        <v>15816.728</v>
+        <v>15618.15</v>
       </c>
       <c r="Y11" t="n">
-        <v>2503.5716</v>
+        <v>2496.026</v>
       </c>
       <c r="Z11" t="n">
-        <v>2625.8372</v>
+        <v>2646.022</v>
       </c>
       <c r="AA11" t="n">
-        <v>46564.776</v>
+        <v>46779.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>23505.462</v>
+        <v>21424.11</v>
       </c>
       <c r="AC11" t="n">
-        <v>4451.2288</v>
+        <v>4296.79</v>
       </c>
       <c r="AD11" t="n">
-        <v>17322.27</v>
+        <v>18716.72</v>
       </c>
       <c r="AE11" t="n">
-        <v>51822.852</v>
+        <v>43151.39</v>
       </c>
       <c r="AF11" t="n">
-        <v>12739339800</v>
+        <v>11474720000</v>
       </c>
       <c r="AG11" t="n">
         <v>50</v>
@@ -1613,94 +1613,94 @@
         <v>70</v>
       </c>
       <c r="C12" t="n">
-        <v>222172440000</v>
+        <v>201891300000</v>
       </c>
       <c r="D12" t="n">
-        <v>1.947523936739389e+85</v>
+        <v>3.653549e+79</v>
       </c>
       <c r="E12" t="n">
-        <v>325681.14</v>
+        <v>367609.4</v>
       </c>
       <c r="F12" t="n">
-        <v>79690.28199999999</v>
+        <v>75938.88</v>
       </c>
       <c r="G12" t="n">
-        <v>1098.448</v>
+        <v>1034.883</v>
       </c>
       <c r="H12" t="n">
-        <v>135.17758</v>
+        <v>126.8215</v>
       </c>
       <c r="I12" t="n">
-        <v>4809.5426</v>
+        <v>5119.099</v>
       </c>
       <c r="J12" t="n">
-        <v>1090.6108</v>
+        <v>1012.122</v>
       </c>
       <c r="K12" t="n">
-        <v>73474.636</v>
+        <v>60245.2</v>
       </c>
       <c r="L12" t="n">
-        <v>14693.91</v>
+        <v>14514.5</v>
       </c>
       <c r="M12" t="n">
-        <v>51826.138</v>
+        <v>42994.1</v>
       </c>
       <c r="N12" t="n">
-        <v>106595026000</v>
+        <v>104315900000</v>
       </c>
       <c r="O12" t="n">
-        <v>61722892000</v>
+        <v>69726200000</v>
       </c>
       <c r="P12" t="n">
-        <v>69176492</v>
+        <v>73135050</v>
       </c>
       <c r="Q12" t="n">
-        <v>19925334000</v>
+        <v>14792940000</v>
       </c>
       <c r="R12" t="n">
-        <v>8628.261200000001</v>
+        <v>11102.29</v>
       </c>
       <c r="S12" t="n">
-        <v>216870.196</v>
+        <v>87678.60000000001</v>
       </c>
       <c r="T12" t="n">
-        <v>349779246</v>
+        <v>313079500</v>
       </c>
       <c r="U12" t="n">
-        <v>7675236800</v>
+        <v>6720248000</v>
       </c>
       <c r="V12" t="n">
-        <v>2668.7958</v>
+        <v>2877.536</v>
       </c>
       <c r="W12" t="n">
-        <v>1349.7978</v>
+        <v>1348.849</v>
       </c>
       <c r="X12" t="n">
-        <v>15816.728</v>
+        <v>15618.15</v>
       </c>
       <c r="Y12" t="n">
-        <v>2503.5716</v>
+        <v>2496.026</v>
       </c>
       <c r="Z12" t="n">
-        <v>2625.8372</v>
+        <v>2646.022</v>
       </c>
       <c r="AA12" t="n">
-        <v>46564.776</v>
+        <v>46779.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>23505.462</v>
+        <v>21424.11</v>
       </c>
       <c r="AC12" t="n">
-        <v>4451.2288</v>
+        <v>4296.79</v>
       </c>
       <c r="AD12" t="n">
-        <v>17322.27</v>
+        <v>18716.72</v>
       </c>
       <c r="AE12" t="n">
-        <v>51822.852</v>
+        <v>43151.39</v>
       </c>
       <c r="AF12" t="n">
-        <v>12739339800</v>
+        <v>11474720000</v>
       </c>
       <c r="AG12" t="n">
         <v>50</v>
@@ -1714,94 +1714,94 @@
         <v>80</v>
       </c>
       <c r="C13" t="n">
-        <v>222172440000</v>
+        <v>201891300000</v>
       </c>
       <c r="D13" t="n">
-        <v>1.947523936739389e+85</v>
+        <v>3.653549e+79</v>
       </c>
       <c r="E13" t="n">
-        <v>325681.14</v>
+        <v>367609.4</v>
       </c>
       <c r="F13" t="n">
-        <v>79690.28199999999</v>
+        <v>75938.88</v>
       </c>
       <c r="G13" t="n">
-        <v>1098.448</v>
+        <v>1034.883</v>
       </c>
       <c r="H13" t="n">
-        <v>135.17758</v>
+        <v>126.8215</v>
       </c>
       <c r="I13" t="n">
-        <v>4809.5426</v>
+        <v>5119.099</v>
       </c>
       <c r="J13" t="n">
-        <v>1090.6108</v>
+        <v>1012.122</v>
       </c>
       <c r="K13" t="n">
-        <v>73474.636</v>
+        <v>60245.2</v>
       </c>
       <c r="L13" t="n">
-        <v>14693.91</v>
+        <v>14514.5</v>
       </c>
       <c r="M13" t="n">
-        <v>51826.138</v>
+        <v>42994.1</v>
       </c>
       <c r="N13" t="n">
-        <v>106595026000</v>
+        <v>104315900000</v>
       </c>
       <c r="O13" t="n">
-        <v>61722892000</v>
+        <v>69726200000</v>
       </c>
       <c r="P13" t="n">
-        <v>69176492</v>
+        <v>73135050</v>
       </c>
       <c r="Q13" t="n">
-        <v>19925334000</v>
+        <v>14792940000</v>
       </c>
       <c r="R13" t="n">
-        <v>8628.261200000001</v>
+        <v>11102.29</v>
       </c>
       <c r="S13" t="n">
-        <v>216870.196</v>
+        <v>87678.60000000001</v>
       </c>
       <c r="T13" t="n">
-        <v>349779246</v>
+        <v>313079500</v>
       </c>
       <c r="U13" t="n">
-        <v>7675236800</v>
+        <v>6720248000</v>
       </c>
       <c r="V13" t="n">
-        <v>2668.7958</v>
+        <v>2877.536</v>
       </c>
       <c r="W13" t="n">
-        <v>1349.7978</v>
+        <v>1348.849</v>
       </c>
       <c r="X13" t="n">
-        <v>15816.728</v>
+        <v>15618.15</v>
       </c>
       <c r="Y13" t="n">
-        <v>2503.5716</v>
+        <v>2496.026</v>
       </c>
       <c r="Z13" t="n">
-        <v>2625.8372</v>
+        <v>2646.022</v>
       </c>
       <c r="AA13" t="n">
-        <v>46564.776</v>
+        <v>46779.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>23505.462</v>
+        <v>21424.11</v>
       </c>
       <c r="AC13" t="n">
-        <v>4451.2288</v>
+        <v>4296.79</v>
       </c>
       <c r="AD13" t="n">
-        <v>17322.27</v>
+        <v>18716.72</v>
       </c>
       <c r="AE13" t="n">
-        <v>51822.852</v>
+        <v>43151.39</v>
       </c>
       <c r="AF13" t="n">
-        <v>12739339800</v>
+        <v>11474720000</v>
       </c>
       <c r="AG13" t="n">
         <v>50</v>
@@ -1815,94 +1815,94 @@
         <v>90</v>
       </c>
       <c r="C14" t="n">
-        <v>222172440000</v>
+        <v>201891300000</v>
       </c>
       <c r="D14" t="n">
-        <v>1.947523936739389e+85</v>
+        <v>3.653549e+79</v>
       </c>
       <c r="E14" t="n">
-        <v>325681.14</v>
+        <v>367609.4</v>
       </c>
       <c r="F14" t="n">
-        <v>79690.28199999999</v>
+        <v>75938.88</v>
       </c>
       <c r="G14" t="n">
-        <v>1098.448</v>
+        <v>1034.883</v>
       </c>
       <c r="H14" t="n">
-        <v>135.17758</v>
+        <v>126.8215</v>
       </c>
       <c r="I14" t="n">
-        <v>4809.5426</v>
+        <v>5119.099</v>
       </c>
       <c r="J14" t="n">
-        <v>1090.6108</v>
+        <v>1012.122</v>
       </c>
       <c r="K14" t="n">
-        <v>73474.636</v>
+        <v>60245.2</v>
       </c>
       <c r="L14" t="n">
-        <v>14693.91</v>
+        <v>14514.5</v>
       </c>
       <c r="M14" t="n">
-        <v>51826.138</v>
+        <v>42994.1</v>
       </c>
       <c r="N14" t="n">
-        <v>106595026000</v>
+        <v>104315900000</v>
       </c>
       <c r="O14" t="n">
-        <v>61722892000</v>
+        <v>69726200000</v>
       </c>
       <c r="P14" t="n">
-        <v>69176492</v>
+        <v>73135050</v>
       </c>
       <c r="Q14" t="n">
-        <v>19925334000</v>
+        <v>14792940000</v>
       </c>
       <c r="R14" t="n">
-        <v>8628.261200000001</v>
+        <v>11102.29</v>
       </c>
       <c r="S14" t="n">
-        <v>216870.196</v>
+        <v>87678.60000000001</v>
       </c>
       <c r="T14" t="n">
-        <v>349779246</v>
+        <v>313079500</v>
       </c>
       <c r="U14" t="n">
-        <v>7675236800</v>
+        <v>6720248000</v>
       </c>
       <c r="V14" t="n">
-        <v>2668.7958</v>
+        <v>2877.536</v>
       </c>
       <c r="W14" t="n">
-        <v>1349.7978</v>
+        <v>1348.849</v>
       </c>
       <c r="X14" t="n">
-        <v>15816.728</v>
+        <v>15618.15</v>
       </c>
       <c r="Y14" t="n">
-        <v>2503.5716</v>
+        <v>2496.026</v>
       </c>
       <c r="Z14" t="n">
-        <v>2625.8372</v>
+        <v>2646.022</v>
       </c>
       <c r="AA14" t="n">
-        <v>46564.776</v>
+        <v>46779.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>23505.462</v>
+        <v>21424.11</v>
       </c>
       <c r="AC14" t="n">
-        <v>4451.2288</v>
+        <v>4296.79</v>
       </c>
       <c r="AD14" t="n">
-        <v>17322.27</v>
+        <v>18716.72</v>
       </c>
       <c r="AE14" t="n">
-        <v>51822.852</v>
+        <v>43151.39</v>
       </c>
       <c r="AF14" t="n">
-        <v>12739339800</v>
+        <v>11474720000</v>
       </c>
       <c r="AG14" t="n">
         <v>50</v>
@@ -1916,94 +1916,94 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>222172440000</v>
+        <v>201891300000</v>
       </c>
       <c r="D15" t="n">
-        <v>1.947523936739389e+85</v>
+        <v>3.653549e+79</v>
       </c>
       <c r="E15" t="n">
-        <v>325681.14</v>
+        <v>367609.4</v>
       </c>
       <c r="F15" t="n">
-        <v>79690.28199999999</v>
+        <v>75938.88</v>
       </c>
       <c r="G15" t="n">
-        <v>1098.448</v>
+        <v>1034.883</v>
       </c>
       <c r="H15" t="n">
-        <v>135.17758</v>
+        <v>126.8215</v>
       </c>
       <c r="I15" t="n">
-        <v>4809.5426</v>
+        <v>5119.099</v>
       </c>
       <c r="J15" t="n">
-        <v>1090.6108</v>
+        <v>1012.122</v>
       </c>
       <c r="K15" t="n">
-        <v>73474.636</v>
+        <v>60245.2</v>
       </c>
       <c r="L15" t="n">
-        <v>14693.91</v>
+        <v>14514.5</v>
       </c>
       <c r="M15" t="n">
-        <v>51826.138</v>
+        <v>42994.1</v>
       </c>
       <c r="N15" t="n">
-        <v>106595026000</v>
+        <v>104315900000</v>
       </c>
       <c r="O15" t="n">
-        <v>61722892000</v>
+        <v>69726200000</v>
       </c>
       <c r="P15" t="n">
-        <v>69176492</v>
+        <v>73135050</v>
       </c>
       <c r="Q15" t="n">
-        <v>19925334000</v>
+        <v>14792940000</v>
       </c>
       <c r="R15" t="n">
-        <v>8628.261200000001</v>
+        <v>11102.29</v>
       </c>
       <c r="S15" t="n">
-        <v>216870.196</v>
+        <v>87678.60000000001</v>
       </c>
       <c r="T15" t="n">
-        <v>349779246</v>
+        <v>313079500</v>
       </c>
       <c r="U15" t="n">
-        <v>7675236800</v>
+        <v>6720248000</v>
       </c>
       <c r="V15" t="n">
-        <v>2668.7958</v>
+        <v>2877.536</v>
       </c>
       <c r="W15" t="n">
-        <v>1349.7978</v>
+        <v>1348.849</v>
       </c>
       <c r="X15" t="n">
-        <v>15816.728</v>
+        <v>15618.15</v>
       </c>
       <c r="Y15" t="n">
-        <v>2503.5716</v>
+        <v>2496.026</v>
       </c>
       <c r="Z15" t="n">
-        <v>2625.8372</v>
+        <v>2646.022</v>
       </c>
       <c r="AA15" t="n">
-        <v>46564.776</v>
+        <v>46779.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>23505.462</v>
+        <v>21424.11</v>
       </c>
       <c r="AC15" t="n">
-        <v>4451.2288</v>
+        <v>4296.79</v>
       </c>
       <c r="AD15" t="n">
-        <v>17322.27</v>
+        <v>18716.72</v>
       </c>
       <c r="AE15" t="n">
-        <v>51822.852</v>
+        <v>43151.39</v>
       </c>
       <c r="AF15" t="n">
-        <v>12739339800</v>
+        <v>11474720000</v>
       </c>
       <c r="AG15" t="n">
         <v>50</v>
